--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C38CB-2E3B-4650-ACBA-926788329353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF938A3-DF53-4927-9805-2A7699FAA91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,6 +612,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -631,12 +637,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,7 +1015,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9011,8 +9011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9048,124 +9048,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9313,10 +9313,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="31">
+      <c r="B10" s="33">
         <v>2024</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9326,11 +9326,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9348,10 +9348,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="35" t="s">
+      <c r="AE10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="35"/>
+      <c r="AF10" s="28"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9412,38 +9412,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="36">
+      <c r="O12" s="36"/>
+      <c r="P12" s="29">
         <v>1</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29">
         <v>2</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36">
+      <c r="S12" s="29"/>
+      <c r="T12" s="29">
         <v>3</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36">
+      <c r="U12" s="29"/>
+      <c r="V12" s="29">
         <v>7</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36">
+      <c r="W12" s="29"/>
+      <c r="X12" s="29">
         <v>15</v>
       </c>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36">
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29">
         <v>30</v>
       </c>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36">
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29">
         <v>60</v>
       </c>
-      <c r="AC12" s="36"/>
+      <c r="AC12" s="29"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9877,7 +9877,7 @@
         <v>45521</v>
       </c>
       <c r="AA16" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB16" s="17">
         <f t="shared" si="7"/>
@@ -10275,11 +10275,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10358,11 +10358,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10442,11 +10442,11 @@
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10526,11 +10526,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10610,11 +10610,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10685,11 +10685,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10760,11 +10760,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10837,11 +10837,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -10914,11 +10914,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -10991,11 +10991,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11068,11 +11068,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11126,7 +11126,7 @@
         <v>45521</v>
       </c>
       <c r="Y31" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z31" s="17">
         <f t="shared" si="6"/>
@@ -11145,11 +11145,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -11945,7 +11945,7 @@
         <v>45521</v>
       </c>
       <c r="U43" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V43" s="17">
         <f t="shared" si="21"/>
@@ -19964,14 +19964,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -19988,6 +19980,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF938A3-DF53-4927-9805-2A7699FAA91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A92149-82BE-4050-A075-6C075714B42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,12 +612,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +631,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,7 +1015,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9011,8 +9011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9048,124 +9048,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9313,10 +9313,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>2024</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9326,11 +9326,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9348,10 +9348,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="28" t="s">
+      <c r="AE10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="28"/>
+      <c r="AF10" s="35"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9412,38 +9412,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="29">
+      <c r="O12" s="34"/>
+      <c r="P12" s="36">
         <v>1</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36">
         <v>2</v>
       </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29">
+      <c r="S12" s="36"/>
+      <c r="T12" s="36">
         <v>3</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29">
+      <c r="U12" s="36"/>
+      <c r="V12" s="36">
         <v>7</v>
       </c>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29">
+      <c r="W12" s="36"/>
+      <c r="X12" s="36">
         <v>15</v>
       </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29">
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36">
         <v>30</v>
       </c>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29">
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36">
         <v>60</v>
       </c>
-      <c r="AC12" s="29"/>
+      <c r="AC12" s="36"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9991,7 +9991,7 @@
         <v>45522</v>
       </c>
       <c r="AA17" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB17" s="17">
         <f t="shared" si="7"/>
@@ -10275,11 +10275,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10358,11 +10358,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10442,11 +10442,11 @@
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10526,11 +10526,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10610,11 +10610,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10685,11 +10685,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10760,11 +10760,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10837,11 +10837,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -10914,11 +10914,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -10991,11 +10991,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11068,11 +11068,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11145,11 +11145,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -19964,6 +19964,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -19980,14 +19988,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A92149-82BE-4050-A075-6C075714B42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29ED974-52A1-4D21-BE7C-2F806CF909D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="50">
   <si>
     <t>年</t>
   </si>
@@ -244,6 +244,41 @@
     <t>day23_ajax异步请求数据_ES6模块化_爱心表白案例讲解-项目实战</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>day24_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王者荣耀案例讲解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布局扩展</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +290,7 @@
     <numFmt numFmtId="178" formatCode="0&quot;天&quot;"/>
     <numFmt numFmtId="179" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +376,13 @@
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="汉仪中黑简"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -612,6 +654,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -631,12 +679,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,7 +1057,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,25 +1320,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45516</c:v>
+                  <c:v>45523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45517</c:v>
+                  <c:v>45524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45518</c:v>
+                  <c:v>45525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45519</c:v>
+                  <c:v>45526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45520</c:v>
+                  <c:v>45527</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45521</c:v>
+                  <c:v>45528</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45522</c:v>
+                  <c:v>45529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,10 +1350,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -1736,7 +1778,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
@@ -4496,7 +4538,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>23</a:t>
+            <a:t>24</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -4693,7 +4735,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>47</a:t>
+            <a:t>49</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9011,8 +9053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9048,124 +9090,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9313,10 +9355,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="31">
+      <c r="B10" s="33">
         <v>2024</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9326,11 +9368,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9348,10 +9390,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="35" t="s">
+      <c r="AE10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="35"/>
+      <c r="AF10" s="28"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9412,38 +9454,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="36">
+      <c r="O12" s="36"/>
+      <c r="P12" s="29">
         <v>1</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29">
         <v>2</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36">
+      <c r="S12" s="29"/>
+      <c r="T12" s="29">
         <v>3</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36">
+      <c r="U12" s="29"/>
+      <c r="V12" s="29">
         <v>7</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36">
+      <c r="W12" s="29"/>
+      <c r="X12" s="29">
         <v>15</v>
       </c>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36">
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29">
         <v>30</v>
       </c>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36">
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29">
         <v>60</v>
       </c>
-      <c r="AC12" s="36"/>
+      <c r="AC12" s="29"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9556,11 +9598,11 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH13" s="15">
         <f ca="1">COUNTIF($N:$N,TODAY())+COUNTIF($P:$P,TODAY())+COUNTIF($R:$R,TODAY())+COUNTIF($T:$T,TODAY())+COUNTIF($V:$V,TODAY())+COUNTIF($X:$X,TODAY())+COUNTIF($Z:$Z,TODAY())+COUNTIF($AB:$AB,TODAY())</f>
@@ -9568,7 +9610,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9670,11 +9712,11 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9776,7 +9818,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9888,7 +9930,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9896,11 +9938,11 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10002,7 +10044,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10106,7 +10148,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45521</v>
+        <v>45528</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10189,7 +10231,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45522</v>
+        <v>45529</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10275,11 +10317,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10358,11 +10400,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10437,16 +10479,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10526,11 +10568,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10610,11 +10652,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10685,11 +10727,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10760,11 +10802,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10837,11 +10879,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -10914,11 +10956,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -10991,11 +11033,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11068,11 +11110,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11145,11 +11187,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -11812,7 +11854,7 @@
         <v>45523</v>
       </c>
       <c r="W41" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X41" s="17">
         <f t="shared" si="22"/>
@@ -12244,17 +12286,21 @@
       <c r="J48" s="19">
         <v>36</v>
       </c>
-      <c r="K48" s="19"/>
+      <c r="K48" s="19">
+        <v>2</v>
+      </c>
       <c r="L48" s="16">
         <v>45523</v>
       </c>
-      <c r="M48" s="19"/>
+      <c r="M48" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="N48" s="17">
         <f t="shared" si="17"/>
         <v>45523</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P48" s="17">
         <f t="shared" si="18"/>
@@ -19964,14 +20010,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -19988,6 +20026,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29ED974-52A1-4D21-BE7C-2F806CF909D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AABA57-09A2-4509-9066-E9630BB4C5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="53">
   <si>
     <t>年</t>
   </si>
@@ -277,6 +277,18 @@
       </rPr>
       <t>布局扩展</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day25_省市区三级联动项目实现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day26_node概念_模块化_模块共享_内置模块_包的概念_手写包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day27_包的加载机制_服务器_请求响应对象_手写web服务器</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1069,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,10 +1790,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -4538,7 +4550,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>24</a:t>
+            <a:t>27</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9053,8 +9065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9610,7 +9622,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9938,7 +9950,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10305,7 +10317,7 @@
         <v>45525</v>
       </c>
       <c r="AA20" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB20" s="17">
         <f t="shared" si="7"/>
@@ -10382,7 +10394,7 @@
         <v>45526</v>
       </c>
       <c r="AA21" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB21" s="17">
         <f t="shared" si="7"/>
@@ -10479,7 +10491,7 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10563,7 +10575,7 @@
       </c>
       <c r="AF23" s="15">
         <f>COUNTIF($K$13:$K$20000,1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -11379,7 +11391,7 @@
         <v>45524</v>
       </c>
       <c r="Y34" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z34" s="17">
         <f t="shared" si="6"/>
@@ -11449,7 +11461,7 @@
         <v>45525</v>
       </c>
       <c r="Y35" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z35" s="17">
         <f t="shared" si="6"/>
@@ -11519,7 +11531,7 @@
         <v>45526</v>
       </c>
       <c r="Y36" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z36" s="17">
         <f t="shared" ref="Z36:Z67" si="23">IF(L36="","",L36+$Z$12)</f>
@@ -11924,7 +11936,7 @@
         <v>45524</v>
       </c>
       <c r="W42" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X42" s="17">
         <f t="shared" si="22"/>
@@ -11994,7 +12006,7 @@
         <v>45525</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X43" s="17">
         <f t="shared" si="22"/>
@@ -12307,21 +12319,21 @@
         <v>45524</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48" s="17">
         <f t="shared" si="19"/>
         <v>45525</v>
       </c>
       <c r="S48" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T48" s="17">
         <f t="shared" si="20"/>
         <v>45526</v>
       </c>
       <c r="U48" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V48" s="17">
         <f t="shared" si="21"/>
@@ -12356,31 +12368,35 @@
       <c r="J49" s="19">
         <v>37</v>
       </c>
-      <c r="K49" s="19"/>
+      <c r="K49" s="19">
+        <v>2</v>
+      </c>
       <c r="L49" s="16">
         <v>45524</v>
       </c>
-      <c r="M49" s="19"/>
+      <c r="M49" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="N49" s="17">
         <f t="shared" si="17"/>
         <v>45524</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P49" s="17">
         <f t="shared" si="18"/>
         <v>45525</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R49" s="17">
         <f t="shared" si="19"/>
         <v>45526</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T49" s="17">
         <f t="shared" si="20"/>
@@ -12422,24 +12438,28 @@
       <c r="J50" s="19">
         <v>38</v>
       </c>
-      <c r="K50" s="19"/>
+      <c r="K50" s="19">
+        <v>1</v>
+      </c>
       <c r="L50" s="16">
         <v>45525</v>
       </c>
-      <c r="M50" s="19"/>
+      <c r="M50" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="N50" s="17">
         <f t="shared" si="17"/>
         <v>45525</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P50" s="17">
         <f t="shared" si="18"/>
         <v>45526</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50" s="17">
         <f t="shared" si="19"/>
@@ -12488,17 +12508,21 @@
       <c r="J51" s="19">
         <v>39</v>
       </c>
-      <c r="K51" s="19"/>
+      <c r="K51" s="19">
+        <v>2</v>
+      </c>
       <c r="L51" s="16">
         <v>45526</v>
       </c>
-      <c r="M51" s="19"/>
+      <c r="M51" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="N51" s="17">
         <f t="shared" si="17"/>
         <v>45526</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P51" s="17">
         <f t="shared" si="18"/>
@@ -20044,12 +20068,10 @@
       <formula>MONTH(B13)&lt;&gt;$E$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13:AC47">
+  <conditionalFormatting sqref="N13:AC2000">
     <cfRule type="expression" dxfId="17" priority="3">
       <formula>N13=TODAY()</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:AC2000">
     <cfRule type="expression" dxfId="16" priority="5">
       <formula>N13&lt;TODAY()</formula>
     </cfRule>

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AABA57-09A2-4509-9066-E9630BB4C5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF618BDB-5411-4B7A-ACB9-B4F7A55BC6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="54">
   <si>
     <t>年</t>
   </si>
@@ -289,6 +289,10 @@
   </si>
   <si>
     <t>day27_包的加载机制_服务器_请求响应对象_手写web服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day28_接口编程_restful接口设计_fetch_axios_apifox</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -666,12 +670,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +689,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1073,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,7 +1794,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
@@ -4550,7 +4554,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>27</a:t>
+            <a:t>28</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9065,8 +9069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9102,124 +9106,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9367,10 +9371,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>2024</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9380,11 +9384,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9402,10 +9406,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="28" t="s">
+      <c r="AE10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="28"/>
+      <c r="AF10" s="35"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9466,38 +9470,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="29">
+      <c r="O12" s="34"/>
+      <c r="P12" s="36">
         <v>1</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36">
         <v>2</v>
       </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29">
+      <c r="S12" s="36"/>
+      <c r="T12" s="36">
         <v>3</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29">
+      <c r="U12" s="36"/>
+      <c r="V12" s="36">
         <v>7</v>
       </c>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29">
+      <c r="W12" s="36"/>
+      <c r="X12" s="36">
         <v>15</v>
       </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29">
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36">
         <v>30</v>
       </c>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29">
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36">
         <v>60</v>
       </c>
-      <c r="AC12" s="29"/>
+      <c r="AC12" s="36"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9622,7 +9626,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9950,7 +9954,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10329,11 +10333,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10412,11 +10416,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10491,16 +10495,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10580,11 +10584,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10664,11 +10668,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10739,11 +10743,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10814,11 +10818,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10891,11 +10895,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -10968,11 +10972,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11045,11 +11049,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11122,11 +11126,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11199,11 +11203,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -12529,21 +12533,21 @@
         <v>45527</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51" s="17">
         <f t="shared" si="19"/>
         <v>45528</v>
       </c>
       <c r="S51" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T51" s="17">
         <f t="shared" si="20"/>
         <v>45529</v>
       </c>
       <c r="U51" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V51" s="17">
         <f t="shared" si="21"/>
@@ -12578,31 +12582,35 @@
       <c r="J52" s="19">
         <v>40</v>
       </c>
-      <c r="K52" s="19"/>
+      <c r="K52" s="19">
+        <v>2</v>
+      </c>
       <c r="L52" s="16">
         <v>45527</v>
       </c>
-      <c r="M52" s="19"/>
+      <c r="M52" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="N52" s="17">
         <f t="shared" si="17"/>
         <v>45527</v>
       </c>
       <c r="O52" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P52" s="17">
         <f t="shared" si="18"/>
         <v>45528</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R52" s="17">
         <f t="shared" si="19"/>
         <v>45529</v>
       </c>
       <c r="S52" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T52" s="17">
         <f t="shared" si="20"/>
@@ -20034,6 +20042,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20050,14 +20066,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF618BDB-5411-4B7A-ACB9-B4F7A55BC6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083B1D7-D60A-4D59-B1C3-CA2C4D97EB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="55">
   <si>
     <t>年</t>
   </si>
@@ -293,6 +293,10 @@
   </si>
   <si>
     <t>day28_接口编程_restful接口设计_fetch_axios_apifox</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day29_用户管理系统增删改查实现_pnpm_webpack_拦截器_深拷贝浅拷贝</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1073,7 +1077,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,25 +1340,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45523</c:v>
+                  <c:v>45530</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45524</c:v>
+                  <c:v>45531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45525</c:v>
+                  <c:v>45532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45526</c:v>
+                  <c:v>45533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45527</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45528</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45529</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +1801,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -4554,7 +4558,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>28</a:t>
+            <a:t>29</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9069,8 +9073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9614,7 +9618,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -9626,7 +9630,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9728,7 +9732,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45524</v>
+        <v>45531</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9834,7 +9838,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45525</v>
+        <v>45532</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9946,7 +9950,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45526</v>
+        <v>45533</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9954,7 +9958,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10060,7 +10064,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10164,7 +10168,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45528</v>
+        <v>45535</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10247,7 +10251,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45529</v>
+        <v>45536</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10579,7 +10583,7 @@
       </c>
       <c r="AF23" s="15">
         <f>COUNTIF($K$13:$K$20000,1)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -12470,14 +12474,14 @@
         <v>45527</v>
       </c>
       <c r="S50" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T50" s="17">
         <f t="shared" si="20"/>
         <v>45528</v>
       </c>
       <c r="U50" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V50" s="17">
         <f t="shared" si="21"/>
@@ -12617,7 +12621,7 @@
         <v>45530</v>
       </c>
       <c r="U52" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V52" s="17">
         <f t="shared" si="21"/>
@@ -12784,11 +12788,15 @@
       <c r="J55" s="19">
         <v>43</v>
       </c>
-      <c r="K55" s="19"/>
+      <c r="K55" s="19">
+        <v>1</v>
+      </c>
       <c r="L55" s="16">
         <v>45530</v>
       </c>
-      <c r="M55" s="19"/>
+      <c r="M55" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="N55" s="17">
         <f t="shared" si="17"/>
         <v>45530</v>

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083B1D7-D60A-4D59-B1C3-CA2C4D97EB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8DE8C6-5DEB-41D6-BD91-944F1FEB3F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="57">
   <si>
     <t>年</t>
   </si>
@@ -297,6 +297,26 @@
   </si>
   <si>
     <t>day29_用户管理系统增删改查实现_pnpm_webpack_拦截器_深拷贝浅拷贝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day30_git_本地_远程仓库_版本控制_分支管理_冲突解决</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_Vue快速入门-创建应用</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -674,6 +694,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -693,12 +719,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1798,10 +1818,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -4558,7 +4578,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>29</a:t>
+            <a:t>31</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9073,7 +9093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
@@ -9110,124 +9130,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9375,10 +9395,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="31">
+      <c r="B10" s="33">
         <v>2024</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9388,11 +9408,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9410,10 +9430,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="35" t="s">
+      <c r="AE10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="35"/>
+      <c r="AF10" s="28"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9474,38 +9494,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="36">
+      <c r="O12" s="36"/>
+      <c r="P12" s="29">
         <v>1</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29">
         <v>2</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36">
+      <c r="S12" s="29"/>
+      <c r="T12" s="29">
         <v>3</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36">
+      <c r="U12" s="29"/>
+      <c r="V12" s="29">
         <v>7</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36">
+      <c r="W12" s="29"/>
+      <c r="X12" s="29">
         <v>15</v>
       </c>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36">
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29">
         <v>30</v>
       </c>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36">
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29">
         <v>60</v>
       </c>
-      <c r="AC12" s="36"/>
+      <c r="AC12" s="29"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9958,7 +9978,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10337,11 +10357,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10420,11 +10440,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10499,16 +10519,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10583,16 +10603,16 @@
       </c>
       <c r="AF23" s="15">
         <f>COUNTIF($K$13:$K$20000,1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10672,11 +10692,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10747,11 +10767,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10822,11 +10842,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10899,11 +10919,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -10976,11 +10996,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11053,11 +11073,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11130,11 +11150,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11207,11 +11227,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -12858,24 +12878,28 @@
       <c r="J56" s="19">
         <v>44</v>
       </c>
-      <c r="K56" s="19"/>
+      <c r="K56" s="19">
+        <v>1</v>
+      </c>
       <c r="L56" s="16">
         <v>45531</v>
       </c>
-      <c r="M56" s="19"/>
+      <c r="M56" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="N56" s="17">
         <f t="shared" si="17"/>
         <v>45531</v>
       </c>
       <c r="O56" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P56" s="17">
         <f t="shared" si="18"/>
         <v>45532</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R56" s="17">
         <f t="shared" si="19"/>
@@ -12924,11 +12948,15 @@
       <c r="J57" s="19">
         <v>45</v>
       </c>
-      <c r="K57" s="19"/>
+      <c r="K57" s="19">
+        <v>2</v>
+      </c>
       <c r="L57" s="16">
         <v>45532</v>
       </c>
-      <c r="M57" s="19"/>
+      <c r="M57" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="N57" s="17">
         <f t="shared" si="17"/>
         <v>45532</v>
@@ -20050,14 +20078,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20074,6 +20094,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8DE8C6-5DEB-41D6-BD91-944F1FEB3F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFE1915-35FD-407D-832E-D3856D012E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="60">
   <si>
     <t>年</t>
   </si>
@@ -317,6 +317,18 @@
       </rPr>
       <t>_Vue快速入门-创建应用</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day34_计算属性和侦听器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day33_模板语法2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day32_模板语法</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -694,12 +706,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +725,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,7 +1109,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,25 +1372,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45530</c:v>
+                  <c:v>45537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45531</c:v>
+                  <c:v>45538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45532</c:v>
+                  <c:v>45539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45533</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45534</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45535</c:v>
+                  <c:v>45542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45536</c:v>
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,7 +1833,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -4578,7 +4590,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>31</a:t>
+            <a:t>34</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9093,8 +9105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9130,124 +9142,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9395,10 +9407,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>2024</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9408,11 +9420,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9430,10 +9442,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="28" t="s">
+      <c r="AE10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="28"/>
+      <c r="AF10" s="35"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9494,38 +9506,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="29">
+      <c r="O12" s="34"/>
+      <c r="P12" s="36">
         <v>1</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36">
         <v>2</v>
       </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29">
+      <c r="S12" s="36"/>
+      <c r="T12" s="36">
         <v>3</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29">
+      <c r="U12" s="36"/>
+      <c r="V12" s="36">
         <v>7</v>
       </c>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29">
+      <c r="W12" s="36"/>
+      <c r="X12" s="36">
         <v>15</v>
       </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29">
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36">
         <v>30</v>
       </c>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29">
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36">
         <v>60</v>
       </c>
-      <c r="AC12" s="29"/>
+      <c r="AC12" s="36"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9638,7 +9650,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45530</v>
+        <v>45537</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -9650,7 +9662,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9752,7 +9764,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45531</v>
+        <v>45538</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9858,7 +9870,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45532</v>
+        <v>45539</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9970,7 +9982,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45533</v>
+        <v>45540</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9978,7 +9990,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10084,7 +10096,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10188,7 +10200,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45535</v>
+        <v>45542</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10271,7 +10283,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45536</v>
+        <v>45543</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10357,11 +10369,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10440,11 +10452,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10524,11 +10536,11 @@
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10603,16 +10615,16 @@
       </c>
       <c r="AF23" s="15">
         <f>COUNTIF($K$13:$K$20000,1)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10692,11 +10704,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10767,11 +10779,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10842,11 +10854,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10919,11 +10931,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -10996,11 +11008,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11073,11 +11085,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11150,11 +11162,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11227,11 +11239,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -13018,11 +13030,15 @@
       <c r="J58" s="19">
         <v>46</v>
       </c>
-      <c r="K58" s="19"/>
+      <c r="K58" s="19">
+        <v>1</v>
+      </c>
       <c r="L58" s="16">
         <v>45533</v>
       </c>
-      <c r="M58" s="19"/>
+      <c r="M58" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="N58" s="17">
         <f t="shared" si="17"/>
         <v>45533</v>
@@ -13084,38 +13100,42 @@
       <c r="J59" s="19">
         <v>47</v>
       </c>
-      <c r="K59" s="19"/>
+      <c r="K59" s="19">
+        <v>1</v>
+      </c>
       <c r="L59" s="16">
         <v>45534</v>
       </c>
-      <c r="M59" s="19"/>
+      <c r="M59" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="N59" s="17">
         <f t="shared" si="17"/>
         <v>45534</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P59" s="17">
         <f t="shared" si="18"/>
         <v>45535</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R59" s="17">
         <f t="shared" si="19"/>
         <v>45536</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T59" s="17">
         <f t="shared" si="20"/>
         <v>45537</v>
       </c>
       <c r="U59" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V59" s="17">
         <f t="shared" si="21"/>
@@ -13282,17 +13302,21 @@
       <c r="J62" s="19">
         <v>50</v>
       </c>
-      <c r="K62" s="19"/>
+      <c r="K62" s="19">
+        <v>1</v>
+      </c>
       <c r="L62" s="16">
         <v>45537</v>
       </c>
-      <c r="M62" s="19"/>
+      <c r="M62" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="N62" s="17">
         <f t="shared" si="17"/>
         <v>45537</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P62" s="17">
         <f t="shared" si="18"/>
@@ -20078,6 +20102,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20094,14 +20126,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFE1915-35FD-407D-832E-D3856D012E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB1A91-A5F1-4C0B-92D1-D10E47EDC852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="63">
   <si>
     <t>年</t>
   </si>
@@ -331,6 +331,18 @@
     <t>day32_模板语法</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>day36_vue3王者荣耀案例</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day35_高阶函数和回调函数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day37-组件基础</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -621,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +718,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -727,10 +745,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,7 +1124,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,10 +1845,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -4590,7 +4605,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>34</a:t>
+            <a:t>37</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9105,8 +9120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9142,124 +9157,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9407,10 +9422,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="31">
+      <c r="B10" s="33">
         <v>2024</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9420,11 +9435,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9442,10 +9457,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="35" t="s">
+      <c r="AE10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="35"/>
+      <c r="AF10" s="28"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9506,38 +9521,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="36">
+      <c r="O12" s="36"/>
+      <c r="P12" s="29">
         <v>1</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29">
         <v>2</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36">
+      <c r="S12" s="29"/>
+      <c r="T12" s="29">
         <v>3</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36">
+      <c r="U12" s="29"/>
+      <c r="V12" s="29">
         <v>7</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36">
+      <c r="W12" s="29"/>
+      <c r="X12" s="29">
         <v>15</v>
       </c>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36">
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29">
         <v>30</v>
       </c>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36">
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29">
         <v>60</v>
       </c>
-      <c r="AC12" s="36"/>
+      <c r="AC12" s="29"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9662,7 +9677,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9990,7 +10005,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10369,11 +10384,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10452,11 +10467,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10531,16 +10546,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10615,16 +10630,16 @@
       </c>
       <c r="AF23" s="15">
         <f>COUNTIF($K$13:$K$20000,1)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10704,11 +10719,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10779,11 +10794,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10854,11 +10869,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10931,11 +10946,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11008,11 +11023,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11085,11 +11100,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11162,11 +11177,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11239,11 +11254,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -13372,17 +13387,21 @@
       <c r="J63" s="19">
         <v>51</v>
       </c>
-      <c r="K63" s="19"/>
+      <c r="K63" s="19">
+        <v>2</v>
+      </c>
       <c r="L63" s="16">
         <v>45538</v>
       </c>
-      <c r="M63" s="19"/>
+      <c r="M63" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="N63" s="17">
         <f t="shared" si="17"/>
         <v>45538</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P63" s="17">
         <f t="shared" si="18"/>
@@ -13438,17 +13457,21 @@
       <c r="J64" s="19">
         <v>52</v>
       </c>
-      <c r="K64" s="19"/>
+      <c r="K64" s="19">
+        <v>1</v>
+      </c>
       <c r="L64" s="16">
         <v>45539</v>
       </c>
-      <c r="M64" s="19"/>
+      <c r="M64" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="N64" s="17">
         <f t="shared" si="17"/>
         <v>45539</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P64" s="17">
         <f t="shared" si="18"/>
@@ -13504,17 +13527,21 @@
       <c r="J65" s="19">
         <v>53</v>
       </c>
-      <c r="K65" s="19"/>
+      <c r="K65" s="19">
+        <v>2</v>
+      </c>
       <c r="L65" s="16">
         <v>45540</v>
       </c>
-      <c r="M65" s="19"/>
+      <c r="M65" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="N65" s="17">
         <f t="shared" si="17"/>
         <v>45540</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P65" s="17">
         <f t="shared" si="18"/>
@@ -20102,14 +20129,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20126,6 +20145,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB1A91-A5F1-4C0B-92D1-D10E47EDC852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE258C-47A5-415E-B692-0C675DB8CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="64">
   <si>
     <t>年</t>
   </si>
@@ -341,6 +341,10 @@
   </si>
   <si>
     <t>day37-组件基础</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day-38-生命周期-vite</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +722,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -745,7 +746,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,7 +1128,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,7 +1849,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
@@ -4605,7 +4609,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>37</a:t>
+            <a:t>38</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9157,124 +9161,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9422,10 +9426,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>2024</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9435,11 +9439,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9457,10 +9461,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="28" t="s">
+      <c r="AE10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="28"/>
+      <c r="AF10" s="36"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9521,38 +9525,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="29">
+      <c r="O12" s="35"/>
+      <c r="P12" s="37">
         <v>1</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37">
         <v>2</v>
       </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29">
+      <c r="S12" s="37"/>
+      <c r="T12" s="37">
         <v>3</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29">
+      <c r="U12" s="37"/>
+      <c r="V12" s="37">
         <v>7</v>
       </c>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37">
         <v>15</v>
       </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29">
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37">
         <v>30</v>
       </c>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29">
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37">
         <v>60</v>
       </c>
-      <c r="AC12" s="29"/>
+      <c r="AC12" s="37"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9677,7 +9681,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10005,7 +10009,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10384,11 +10388,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10467,11 +10471,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10546,16 +10550,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10635,11 +10639,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10719,11 +10723,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10794,11 +10798,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10869,11 +10873,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10946,11 +10950,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11023,11 +11027,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11100,11 +11104,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11177,11 +11181,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11254,11 +11258,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -13463,7 +13467,7 @@
       <c r="L64" s="16">
         <v>45539</v>
       </c>
-      <c r="M64" s="37" t="s">
+      <c r="M64" s="28" t="s">
         <v>60</v>
       </c>
       <c r="N64" s="17">
@@ -13597,11 +13601,15 @@
       <c r="J66" s="19">
         <v>54</v>
       </c>
-      <c r="K66" s="19"/>
+      <c r="K66" s="19">
+        <v>2</v>
+      </c>
       <c r="L66" s="16">
         <v>45541</v>
       </c>
-      <c r="M66" s="19"/>
+      <c r="M66" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="N66" s="17">
         <f t="shared" si="17"/>
         <v>45541</v>
@@ -20129,6 +20137,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20145,14 +20161,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE258C-47A5-415E-B692-0C675DB8CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26613A6F-5863-4529-B8A5-2B055C23EB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="65">
   <si>
     <t>年</t>
   </si>
@@ -344,7 +344,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>day-38-生命周期-vite</t>
+    <t>day38-生命周期-vite</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day39-组合式API</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -725,6 +729,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -744,12 +754,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,7 +1132,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,25 +1395,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45537</c:v>
+                  <c:v>45544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45538</c:v>
+                  <c:v>45545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45539</c:v>
+                  <c:v>45546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45540</c:v>
+                  <c:v>45547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45541</c:v>
+                  <c:v>45548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45542</c:v>
+                  <c:v>45549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45543</c:v>
+                  <c:v>45550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,13 +1437,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,7 +1853,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
@@ -4609,7 +4613,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>38</a:t>
+            <a:t>39</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -4806,7 +4810,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>49</a:t>
+            <a:t>52</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9124,8 +9128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9161,124 +9165,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9426,10 +9430,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="32">
+      <c r="B10" s="34">
         <v>2024</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9439,11 +9443,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9461,10 +9465,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="36"/>
+      <c r="AF10" s="29"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9525,38 +9529,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="37">
+      <c r="O12" s="37"/>
+      <c r="P12" s="30">
         <v>1</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37">
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30">
         <v>2</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37">
+      <c r="S12" s="30"/>
+      <c r="T12" s="30">
         <v>3</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37">
+      <c r="U12" s="30"/>
+      <c r="V12" s="30">
         <v>7</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37">
+      <c r="W12" s="30"/>
+      <c r="X12" s="30">
         <v>15</v>
       </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37">
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30">
         <v>30</v>
       </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37">
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30">
         <v>60</v>
       </c>
-      <c r="AC12" s="37"/>
+      <c r="AC12" s="30"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9669,7 +9673,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -9681,7 +9685,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9783,7 +9787,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9889,7 +9893,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10001,7 +10005,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10009,11 +10013,11 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10115,11 +10119,11 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10219,11 +10223,11 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10302,11 +10306,11 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45543</v>
+        <v>45550</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10388,11 +10392,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10471,11 +10475,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10550,16 +10554,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10639,11 +10643,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10723,11 +10727,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10798,11 +10802,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10873,11 +10877,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10950,11 +10954,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11027,11 +11031,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11104,11 +11108,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11181,11 +11185,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11258,11 +11262,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -13363,7 +13367,7 @@
         <v>45544</v>
       </c>
       <c r="W62" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X62" s="17">
         <f t="shared" si="22"/>
@@ -13566,7 +13570,7 @@
         <v>45543</v>
       </c>
       <c r="U65" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V65" s="17">
         <f t="shared" si="21"/>
@@ -13629,7 +13633,7 @@
         <v>45543</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T66" s="17">
         <f t="shared" si="20"/>
@@ -13803,17 +13807,21 @@
       <c r="J69" s="19">
         <v>57</v>
       </c>
-      <c r="K69" s="19"/>
+      <c r="K69" s="19">
+        <v>2</v>
+      </c>
       <c r="L69" s="16">
         <v>45544</v>
       </c>
-      <c r="M69" s="19"/>
+      <c r="M69" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="N69" s="17">
         <f t="shared" si="25"/>
         <v>45544</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P69" s="17">
         <f t="shared" si="26"/>
@@ -20137,14 +20145,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20161,6 +20161,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26613A6F-5863-4529-B8A5-2B055C23EB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4833B6-B8F9-43F1-803D-DE78D0FB4788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="66">
   <si>
     <t>年</t>
   </si>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>day39-组合式API</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day40-组件深入</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -729,12 +733,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +752,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1136,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,7 +1857,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
@@ -4613,7 +4617,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>39</a:t>
+            <a:t>40</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9128,8 +9132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9165,124 +9169,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9430,10 +9434,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>2024</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9443,11 +9447,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9465,10 +9469,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="29" t="s">
+      <c r="AE10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="29"/>
+      <c r="AF10" s="36"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9529,38 +9533,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="30">
+      <c r="O12" s="35"/>
+      <c r="P12" s="37">
         <v>1</v>
       </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37">
         <v>2</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30">
+      <c r="S12" s="37"/>
+      <c r="T12" s="37">
         <v>3</v>
       </c>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30">
+      <c r="U12" s="37"/>
+      <c r="V12" s="37">
         <v>7</v>
       </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37">
         <v>15</v>
       </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30">
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37">
         <v>30</v>
       </c>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30">
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37">
         <v>60</v>
       </c>
-      <c r="AC12" s="30"/>
+      <c r="AC12" s="37"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9685,7 +9689,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10013,7 +10017,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10392,11 +10396,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10475,11 +10479,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10554,16 +10558,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10643,11 +10647,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10727,11 +10731,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10802,11 +10806,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10877,11 +10881,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10954,11 +10958,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11031,11 +11035,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11108,11 +11112,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11185,11 +11189,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11262,11 +11266,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -13877,17 +13881,21 @@
       <c r="J70" s="19">
         <v>58</v>
       </c>
-      <c r="K70" s="19"/>
+      <c r="K70" s="19">
+        <v>2</v>
+      </c>
       <c r="L70" s="16">
         <v>45545</v>
       </c>
-      <c r="M70" s="19"/>
+      <c r="M70" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="N70" s="17">
         <f t="shared" si="25"/>
         <v>45545</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P70" s="17">
         <f t="shared" si="26"/>
@@ -20145,6 +20153,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20161,14 +20177,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4833B6-B8F9-43F1-803D-DE78D0FB4788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC101D-82B9-4A6B-AD3A-3D677CFDD90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="68">
   <si>
     <t>年</t>
   </si>
@@ -352,7 +352,46 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>day40-组件深入</t>
+    <r>
+      <t>day42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="汉仪中黑简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tabBar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_动态组件_KeepAlive_组件v-model</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day41-组件深入2_依赖注入_组件实例_内置组件_Hooks函数_CSS功能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day40-组件深入_ref()_watch()_Props_Emit_插槽_透传</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -733,6 +772,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,12 +797,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,7 +1175,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,7 +1896,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
@@ -4617,7 +4656,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>40</a:t>
+            <a:t>42</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9133,7 +9172,7 @@
   <dimension ref="A1:XFC164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9169,124 +9208,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9434,10 +9473,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="32">
+      <c r="B10" s="34">
         <v>2024</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9447,11 +9486,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9469,10 +9508,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="36"/>
+      <c r="AF10" s="29"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9533,38 +9572,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="37">
+      <c r="O12" s="37"/>
+      <c r="P12" s="30">
         <v>1</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37">
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30">
         <v>2</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37">
+      <c r="S12" s="30"/>
+      <c r="T12" s="30">
         <v>3</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37">
+      <c r="U12" s="30"/>
+      <c r="V12" s="30">
         <v>7</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37">
+      <c r="W12" s="30"/>
+      <c r="X12" s="30">
         <v>15</v>
       </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37">
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30">
         <v>30</v>
       </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37">
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30">
         <v>60</v>
       </c>
-      <c r="AC12" s="37"/>
+      <c r="AC12" s="30"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9689,7 +9728,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10017,7 +10056,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10396,11 +10435,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10479,11 +10518,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10558,16 +10597,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10647,11 +10686,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10731,11 +10770,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10806,11 +10845,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10881,11 +10920,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10958,11 +10997,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11035,11 +11074,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11112,11 +11151,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11189,11 +11228,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11266,11 +11305,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -13888,7 +13927,7 @@
         <v>45545</v>
       </c>
       <c r="M70" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N70" s="17">
         <f t="shared" si="25"/>
@@ -13909,7 +13948,7 @@
         <v>45547</v>
       </c>
       <c r="S70" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T70" s="17">
         <f t="shared" si="28"/>
@@ -13951,24 +13990,28 @@
       <c r="J71" s="19">
         <v>59</v>
       </c>
-      <c r="K71" s="19"/>
+      <c r="K71" s="19">
+        <v>2</v>
+      </c>
       <c r="L71" s="16">
         <v>45546</v>
       </c>
-      <c r="M71" s="19"/>
+      <c r="M71" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="N71" s="17">
         <f t="shared" si="25"/>
         <v>45546</v>
       </c>
       <c r="O71" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P71" s="17">
         <f t="shared" si="26"/>
         <v>45547</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R71" s="17">
         <f t="shared" si="27"/>
@@ -14017,17 +14060,21 @@
       <c r="J72" s="19">
         <v>60</v>
       </c>
-      <c r="K72" s="19"/>
+      <c r="K72" s="19">
+        <v>2</v>
+      </c>
       <c r="L72" s="16">
         <v>45547</v>
       </c>
-      <c r="M72" s="19"/>
+      <c r="M72" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="N72" s="17">
         <f t="shared" si="25"/>
         <v>45547</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P72" s="17">
         <f t="shared" si="26"/>
@@ -20153,14 +20200,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20177,6 +20216,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC101D-82B9-4A6B-AD3A-3D677CFDD90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCB2B03-A956-4080-9905-A4F4AAB7DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="71">
   <si>
     <t>年</t>
   </si>
@@ -392,6 +392,30 @@
   </si>
   <si>
     <t>day40-组件深入_ref()_watch()_Props_Emit_插槽_透传</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_todo-list项目实战</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day44_todo-list项目讲解</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day45_路由基础_集成_配置_匹配_编程式导航_导航守卫</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -772,12 +796,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +815,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,10 +1196,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,25 +1462,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45544</c:v>
+                  <c:v>45551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45545</c:v>
+                  <c:v>45552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45546</c:v>
+                  <c:v>45553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45547</c:v>
+                  <c:v>45554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45548</c:v>
+                  <c:v>45555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45549</c:v>
+                  <c:v>45556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45550</c:v>
+                  <c:v>45557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,16 +1492,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
@@ -1896,7 +1920,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
@@ -4656,7 +4680,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>42</a:t>
+            <a:t>45</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -4853,7 +4877,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>52</a:t>
+            <a:t>56</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9171,8 +9195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9208,124 +9232,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9473,10 +9497,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>2024</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9486,11 +9510,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9508,10 +9532,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="29" t="s">
+      <c r="AE10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="29"/>
+      <c r="AF10" s="36"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9572,38 +9596,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="30">
+      <c r="O12" s="35"/>
+      <c r="P12" s="37">
         <v>1</v>
       </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37">
         <v>2</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30">
+      <c r="S12" s="37"/>
+      <c r="T12" s="37">
         <v>3</v>
       </c>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30">
+      <c r="U12" s="37"/>
+      <c r="V12" s="37">
         <v>7</v>
       </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37">
         <v>15</v>
       </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30">
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37">
         <v>30</v>
       </c>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30">
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37">
         <v>60</v>
       </c>
-      <c r="AC12" s="30"/>
+      <c r="AC12" s="37"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9716,19 +9740,19 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45544</v>
+        <v>45551</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" s="15">
         <f ca="1">COUNTIF($N:$N,TODAY())+COUNTIF($P:$P,TODAY())+COUNTIF($R:$R,TODAY())+COUNTIF($T:$T,TODAY())+COUNTIF($V:$V,TODAY())+COUNTIF($X:$X,TODAY())+COUNTIF($Z:$Z,TODAY())+COUNTIF($AB:$AB,TODAY())</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9830,11 +9854,11 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45545</v>
+        <v>45552</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9936,11 +9960,11 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45546</v>
+        <v>45553</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH15" s="22" t="s">
         <v>21</v>
@@ -10048,19 +10072,19 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45547</v>
+        <v>45554</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10162,7 +10186,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10266,7 +10290,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45549</v>
+        <v>45556</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10349,7 +10373,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45550</v>
+        <v>45557</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10435,11 +10459,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10518,11 +10542,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10597,16 +10621,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10686,11 +10710,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10770,11 +10794,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10845,11 +10869,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10920,11 +10944,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -10997,11 +11021,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11074,11 +11098,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11151,11 +11175,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11228,11 +11252,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11305,11 +11329,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -14130,11 +14154,15 @@
       <c r="J73" s="19">
         <v>61</v>
       </c>
-      <c r="K73" s="19"/>
+      <c r="K73" s="19">
+        <v>2</v>
+      </c>
       <c r="L73" s="16">
         <v>45548</v>
       </c>
-      <c r="M73" s="19"/>
+      <c r="M73" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="N73" s="17">
         <f t="shared" si="25"/>
         <v>45548</v>
@@ -14196,11 +14224,15 @@
       <c r="J74" s="19">
         <v>62</v>
       </c>
-      <c r="K74" s="19"/>
+      <c r="K74" s="19">
+        <v>2</v>
+      </c>
       <c r="L74" s="16">
         <v>45549</v>
       </c>
-      <c r="M74" s="19"/>
+      <c r="M74" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="N74" s="17">
         <f t="shared" si="25"/>
         <v>45549</v>
@@ -14460,17 +14492,21 @@
       <c r="J78" s="19">
         <v>66</v>
       </c>
-      <c r="K78" s="19"/>
+      <c r="K78" s="19">
+        <v>2</v>
+      </c>
       <c r="L78" s="16">
         <v>45553</v>
       </c>
-      <c r="M78" s="19"/>
+      <c r="M78" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="N78" s="17">
         <f t="shared" si="25"/>
         <v>45553</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P78" s="17">
         <f t="shared" si="26"/>
@@ -20200,6 +20236,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20216,14 +20260,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCB2B03-A956-4080-9905-A4F4AAB7DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36191A55-0938-460C-A6A5-C9FF34B72CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="72">
   <si>
     <t>年</t>
   </si>
@@ -416,6 +416,10 @@
   </si>
   <si>
     <t>day45_路由基础_集成_配置_匹配_编程式导航_导航守卫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day46_集成axios_集成pinia</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1920,7 +1924,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
@@ -4680,7 +4684,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>45</a:t>
+            <a:t>46</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9195,8 +9199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -10080,7 +10084,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10621,7 +10625,7 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -12596,7 +12600,7 @@
         <v>45527</v>
       </c>
       <c r="S50" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T50" s="17">
         <f t="shared" si="20"/>
@@ -12659,14 +12663,14 @@
         <v>45527</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R51" s="17">
         <f t="shared" si="19"/>
         <v>45528</v>
       </c>
       <c r="S51" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T51" s="17">
         <f t="shared" si="20"/>
@@ -12729,7 +12733,7 @@
         <v>45528</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R52" s="17">
         <f t="shared" si="19"/>
@@ -14562,17 +14566,21 @@
       <c r="J79" s="19">
         <v>67</v>
       </c>
-      <c r="K79" s="19"/>
+      <c r="K79" s="19">
+        <v>2</v>
+      </c>
       <c r="L79" s="16">
         <v>45554</v>
       </c>
-      <c r="M79" s="19"/>
+      <c r="M79" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="N79" s="17">
         <f t="shared" si="25"/>
         <v>45554</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P79" s="17">
         <f t="shared" si="26"/>

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36191A55-0938-460C-A6A5-C9FF34B72CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE34731-A7A1-4BD2-AA45-E33917988F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="75">
   <si>
     <t>年</t>
   </si>
@@ -420,6 +420,30 @@
   </si>
   <si>
     <t>day46_集成axios_集成pinia</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day47_UI框架_css预处理-scss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day48_网易云音乐搜索页面案例_深度选择器_超出文本省略号样式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_简易万年历_跨域访问_Date()参数的“进位借位”_Array.from()</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1203,7 +1227,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,25 +1490,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45551</c:v>
+                  <c:v>45558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45552</c:v>
+                  <c:v>45559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45553</c:v>
+                  <c:v>45560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45554</c:v>
+                  <c:v>45561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45555</c:v>
+                  <c:v>45562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45556</c:v>
+                  <c:v>45563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45557</c:v>
+                  <c:v>45564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,10 +1948,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -4684,7 +4708,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>46</a:t>
+            <a:t>49</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9199,8 +9223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9744,7 +9768,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45551</v>
+        <v>45558</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -9756,7 +9780,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9858,7 +9882,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45552</v>
+        <v>45559</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9964,7 +9988,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45553</v>
+        <v>45560</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10076,7 +10100,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45554</v>
+        <v>45561</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10084,7 +10108,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10190,7 +10214,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10294,7 +10318,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45556</v>
+        <v>45563</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10377,7 +10401,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45557</v>
+        <v>45564</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10625,7 +10649,7 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10709,7 +10733,7 @@
       </c>
       <c r="AF23" s="15">
         <f>COUNTIF($K$13:$K$20000,1)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -14636,17 +14660,21 @@
       <c r="J80" s="19">
         <v>68</v>
       </c>
-      <c r="K80" s="19"/>
+      <c r="K80" s="19">
+        <v>1</v>
+      </c>
       <c r="L80" s="16">
         <v>45555</v>
       </c>
-      <c r="M80" s="19"/>
+      <c r="M80" s="27" t="s">
+        <v>72</v>
+      </c>
       <c r="N80" s="17">
         <f t="shared" si="25"/>
         <v>45555</v>
       </c>
       <c r="O80" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P80" s="17">
         <f t="shared" si="26"/>
@@ -14834,11 +14862,15 @@
       <c r="J83" s="19">
         <v>71</v>
       </c>
-      <c r="K83" s="19"/>
+      <c r="K83" s="19">
+        <v>2</v>
+      </c>
       <c r="L83" s="16">
         <v>45558</v>
       </c>
-      <c r="M83" s="19"/>
+      <c r="M83" s="27" t="s">
+        <v>73</v>
+      </c>
       <c r="N83" s="17">
         <f t="shared" si="25"/>
         <v>45558</v>
@@ -14851,7 +14883,7 @@
         <v>45559</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R83" s="17">
         <f t="shared" si="27"/>
@@ -14900,17 +14932,21 @@
       <c r="J84" s="19">
         <v>72</v>
       </c>
-      <c r="K84" s="19"/>
+      <c r="K84" s="19">
+        <v>2</v>
+      </c>
       <c r="L84" s="16">
         <v>45559</v>
       </c>
-      <c r="M84" s="19"/>
+      <c r="M84" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="N84" s="17">
         <f t="shared" si="25"/>
         <v>45559</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P84" s="17">
         <f t="shared" si="26"/>

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE34731-A7A1-4BD2-AA45-E33917988F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B77479-843A-4953-9150-7630D62AA725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="82">
   <si>
     <t>年</t>
   </si>
@@ -446,6 +446,46 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>day50_echart基本使用_vue3中使用echarts_echarts-admin项目实战part1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day51_echarts-admin项目实战part1讲解_完成part2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day52_echarts-admin项目实战part2讲解_完成part3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day53_echarts-admin项目实战part3讲解_完成part4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day54_echarts-admin项目实战part4讲解</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_考核项目-新中地天气</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day56_考核项目-新中地天气</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -824,6 +864,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,12 +889,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,7 +1267,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,25 +1530,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45558</c:v>
+                  <c:v>45572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45559</c:v>
+                  <c:v>45573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45560</c:v>
+                  <c:v>45574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45561</c:v>
+                  <c:v>45575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45562</c:v>
+                  <c:v>45576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45563</c:v>
+                  <c:v>45577</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45564</c:v>
+                  <c:v>45578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1948,7 +1988,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
@@ -4708,7 +4748,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>49</a:t>
+            <a:t>56</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9223,8 +9263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9260,124 +9300,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9525,10 +9565,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="32">
+      <c r="B10" s="34">
         <v>2024</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9538,11 +9578,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9560,10 +9600,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="36"/>
+      <c r="AF10" s="29"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9624,38 +9664,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="37">
+      <c r="O12" s="37"/>
+      <c r="P12" s="30">
         <v>1</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37">
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30">
         <v>2</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37">
+      <c r="S12" s="30"/>
+      <c r="T12" s="30">
         <v>3</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37">
+      <c r="U12" s="30"/>
+      <c r="V12" s="30">
         <v>7</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37">
+      <c r="W12" s="30"/>
+      <c r="X12" s="30">
         <v>15</v>
       </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37">
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30">
         <v>30</v>
       </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37">
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30">
         <v>60</v>
       </c>
-      <c r="AC12" s="37"/>
+      <c r="AC12" s="30"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9768,7 +9808,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45558</v>
+        <v>45572</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -9780,7 +9820,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9882,7 +9922,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45559</v>
+        <v>45573</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -9988,7 +10028,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45560</v>
+        <v>45574</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10100,7 +10140,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45561</v>
+        <v>45575</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10108,7 +10148,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10214,7 +10254,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45562</v>
+        <v>45576</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10318,7 +10358,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45563</v>
+        <v>45577</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10401,7 +10441,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45564</v>
+        <v>45578</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10487,11 +10527,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10570,11 +10610,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10649,16 +10689,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10738,11 +10778,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10822,11 +10862,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10897,11 +10937,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -10972,11 +11012,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -11049,11 +11089,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11126,11 +11166,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11203,11 +11243,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11280,11 +11320,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11357,11 +11397,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -15002,11 +15042,15 @@
       <c r="J85" s="19">
         <v>73</v>
       </c>
-      <c r="K85" s="19"/>
+      <c r="K85" s="19">
+        <v>2</v>
+      </c>
       <c r="L85" s="16">
         <v>45560</v>
       </c>
-      <c r="M85" s="19"/>
+      <c r="M85" s="27" t="s">
+        <v>75</v>
+      </c>
       <c r="N85" s="17">
         <f t="shared" si="25"/>
         <v>45560</v>
@@ -15068,11 +15112,15 @@
       <c r="J86" s="19">
         <v>74</v>
       </c>
-      <c r="K86" s="19"/>
+      <c r="K86" s="19">
+        <v>2</v>
+      </c>
       <c r="L86" s="16">
         <v>45561</v>
       </c>
-      <c r="M86" s="19"/>
+      <c r="M86" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="N86" s="17">
         <f t="shared" si="25"/>
         <v>45561</v>
@@ -15134,11 +15182,15 @@
       <c r="J87" s="19">
         <v>75</v>
       </c>
-      <c r="K87" s="19"/>
+      <c r="K87" s="19">
+        <v>2</v>
+      </c>
       <c r="L87" s="16">
         <v>45562</v>
       </c>
-      <c r="M87" s="19"/>
+      <c r="M87" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="N87" s="17">
         <f t="shared" si="25"/>
         <v>45562</v>
@@ -15266,11 +15318,15 @@
       <c r="J89" s="19">
         <v>77</v>
       </c>
-      <c r="K89" s="19"/>
+      <c r="K89" s="19">
+        <v>2</v>
+      </c>
       <c r="L89" s="16">
         <v>45564</v>
       </c>
-      <c r="M89" s="19"/>
+      <c r="M89" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="N89" s="17">
         <f t="shared" si="25"/>
         <v>45564</v>
@@ -15332,11 +15388,15 @@
       <c r="J90" s="19">
         <v>78</v>
       </c>
-      <c r="K90" s="19"/>
+      <c r="K90" s="19">
+        <v>2</v>
+      </c>
       <c r="L90" s="16">
         <v>45565</v>
       </c>
-      <c r="M90" s="19"/>
+      <c r="M90" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="N90" s="17">
         <f t="shared" si="25"/>
         <v>45565</v>
@@ -15860,11 +15920,15 @@
       <c r="J98" s="19">
         <v>86</v>
       </c>
-      <c r="K98" s="19"/>
+      <c r="K98" s="19">
+        <v>2</v>
+      </c>
       <c r="L98" s="16">
         <v>45573</v>
       </c>
-      <c r="M98" s="19"/>
+      <c r="M98" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="N98" s="17">
         <f t="shared" si="25"/>
         <v>45573</v>
@@ -15926,11 +15990,15 @@
       <c r="J99" s="19">
         <v>87</v>
       </c>
-      <c r="K99" s="19"/>
+      <c r="K99" s="19">
+        <v>2</v>
+      </c>
       <c r="L99" s="16">
         <v>45574</v>
       </c>
-      <c r="M99" s="19"/>
+      <c r="M99" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="N99" s="17">
         <f t="shared" si="25"/>
         <v>45574</v>
@@ -20280,14 +20348,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20304,6 +20364,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B77479-843A-4953-9150-7630D62AA725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FB3EF1-7920-4F1B-9FCC-2EC8BD729200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="86">
   <si>
     <t>年</t>
   </si>
@@ -486,6 +486,34 @@
     <t>day56_考核项目-新中地天气</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>day56_考核项目-新中地天气-评定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_canvas基本使用_mysql基本使用_css:clip-path</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day58_canvas动画-变换_mysql数据库关系-对记录操作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day59_canvas像素操作-马赛克效果_面向对象编程_递归_MySQL单表查询</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -864,12 +892,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -889,6 +911,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1267,7 +1295,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,25 +1558,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45572</c:v>
+                  <c:v>45579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45573</c:v>
+                  <c:v>45580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45574</c:v>
+                  <c:v>45581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45575</c:v>
+                  <c:v>45582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45576</c:v>
+                  <c:v>45583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45577</c:v>
+                  <c:v>45584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45578</c:v>
+                  <c:v>45585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,13 +2016,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4748,7 +4776,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>56</a:t>
+            <a:t>60</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9263,8 +9291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9300,124 +9328,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9565,10 +9593,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>2024</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9578,11 +9606,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9600,10 +9628,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="29" t="s">
+      <c r="AE10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="29"/>
+      <c r="AF10" s="36"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9664,38 +9692,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="30">
+      <c r="O12" s="35"/>
+      <c r="P12" s="37">
         <v>1</v>
       </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37">
         <v>2</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30">
+      <c r="S12" s="37"/>
+      <c r="T12" s="37">
         <v>3</v>
       </c>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30">
+      <c r="U12" s="37"/>
+      <c r="V12" s="37">
         <v>7</v>
       </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37">
         <v>15</v>
       </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30">
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37">
         <v>30</v>
       </c>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30">
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37">
         <v>60</v>
       </c>
-      <c r="AC12" s="30"/>
+      <c r="AC12" s="37"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9808,7 +9836,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45572</v>
+        <v>45579</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -9820,7 +9848,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9922,7 +9950,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45573</v>
+        <v>45580</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10028,7 +10056,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45574</v>
+        <v>45581</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10140,7 +10168,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10148,7 +10176,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10254,7 +10282,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10358,7 +10386,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45577</v>
+        <v>45584</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10441,7 +10469,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45578</v>
+        <v>45585</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10527,11 +10555,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10610,11 +10638,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10689,16 +10717,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10778,11 +10806,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10857,16 +10885,16 @@
       </c>
       <c r="AF24" s="15">
         <f>COUNTIF($K$13:$K$20000,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10937,11 +10965,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -11012,11 +11040,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -11089,11 +11117,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11166,11 +11194,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11243,11 +11271,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11320,11 +11348,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11397,11 +11425,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -16060,11 +16088,15 @@
       <c r="J100" s="19">
         <v>88</v>
       </c>
-      <c r="K100" s="19"/>
+      <c r="K100" s="19">
+        <v>0</v>
+      </c>
       <c r="L100" s="16">
         <v>45575</v>
       </c>
-      <c r="M100" s="19"/>
+      <c r="M100" s="27" t="s">
+        <v>82</v>
+      </c>
       <c r="N100" s="17">
         <f t="shared" ref="N100:N131" si="33">IF(L100="","",L100)</f>
         <v>45575</v>
@@ -16126,11 +16158,15 @@
       <c r="J101" s="19">
         <v>89</v>
       </c>
-      <c r="K101" s="19"/>
+      <c r="K101" s="19">
+        <v>0</v>
+      </c>
       <c r="L101" s="16">
         <v>45576</v>
       </c>
-      <c r="M101" s="19"/>
+      <c r="M101" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="N101" s="17">
         <f t="shared" si="33"/>
         <v>45576</v>
@@ -16192,11 +16228,15 @@
       <c r="J102" s="19">
         <v>90</v>
       </c>
-      <c r="K102" s="19"/>
+      <c r="K102" s="19">
+        <v>2</v>
+      </c>
       <c r="L102" s="16">
         <v>45577</v>
       </c>
-      <c r="M102" s="19"/>
+      <c r="M102" s="27" t="s">
+        <v>84</v>
+      </c>
       <c r="N102" s="17">
         <f t="shared" si="33"/>
         <v>45577</v>
@@ -16324,17 +16364,21 @@
       <c r="J104" s="19">
         <v>92</v>
       </c>
-      <c r="K104" s="19"/>
+      <c r="K104" s="19">
+        <v>2</v>
+      </c>
       <c r="L104" s="16">
         <v>45579</v>
       </c>
-      <c r="M104" s="19"/>
+      <c r="M104" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="N104" s="17">
         <f t="shared" si="33"/>
         <v>45579</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P104" s="17">
         <f t="shared" si="34"/>
@@ -20348,6 +20392,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20364,14 +20416,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FB3EF1-7920-4F1B-9FCC-2EC8BD729200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9028F5-30BB-4B32-B632-545FDA50C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="92">
   <si>
     <t>年</t>
   </si>
@@ -514,6 +514,42 @@
     <t>day59_canvas像素操作-马赛克效果_面向对象编程_递归_MySQL单表查询</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>day61_svg基础</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day62_无缝轮播图_3D轮播图_3D照片墙_3D变换_强制重绘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day64_矢量图层_要素</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_openlayer初体验_css-重排和重绘</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day60_截图案例_形状画板案例_MySQL联表查询</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day65_overlay,事件处理,选取要素,绘制要素,控件_js中访问mysql</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -892,6 +928,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -911,12 +953,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,7 +1331,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,25 +1594,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45579</c:v>
+                  <c:v>45586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45580</c:v>
+                  <c:v>45587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45581</c:v>
+                  <c:v>45588</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45582</c:v>
+                  <c:v>45589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45583</c:v>
+                  <c:v>45590</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45584</c:v>
+                  <c:v>45591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45585</c:v>
+                  <c:v>45592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,13 +2052,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4776,7 +4812,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>60</a:t>
+            <a:t>66</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9291,8 +9327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M105" sqref="M105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9328,124 +9364,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9593,10 +9629,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="32">
+      <c r="B10" s="34">
         <v>2024</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9606,11 +9642,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9628,10 +9664,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="36"/>
+      <c r="AF10" s="29"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9692,38 +9728,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="37">
+      <c r="O12" s="37"/>
+      <c r="P12" s="30">
         <v>1</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37">
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30">
         <v>2</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37">
+      <c r="S12" s="30"/>
+      <c r="T12" s="30">
         <v>3</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37">
+      <c r="U12" s="30"/>
+      <c r="V12" s="30">
         <v>7</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37">
+      <c r="W12" s="30"/>
+      <c r="X12" s="30">
         <v>15</v>
       </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37">
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30">
         <v>30</v>
       </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37">
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30">
         <v>60</v>
       </c>
-      <c r="AC12" s="37"/>
+      <c r="AC12" s="30"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9836,7 +9872,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45579</v>
+        <v>45586</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -9848,7 +9884,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9950,7 +9986,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45580</v>
+        <v>45587</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10056,7 +10092,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45581</v>
+        <v>45588</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10168,7 +10204,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45582</v>
+        <v>45589</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10176,7 +10212,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10282,7 +10318,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10386,7 +10422,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45584</v>
+        <v>45591</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10469,7 +10505,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45585</v>
+        <v>45592</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10555,11 +10591,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10638,11 +10674,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10717,16 +10753,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10801,16 +10837,16 @@
       </c>
       <c r="AF23" s="15">
         <f>COUNTIF($K$13:$K$20000,1)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10885,16 +10921,16 @@
       </c>
       <c r="AF24" s="15">
         <f>COUNTIF($K$13:$K$20000,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -10965,11 +11001,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -11040,11 +11076,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -11117,11 +11153,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11194,11 +11230,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11271,11 +11307,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11348,11 +11384,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11425,11 +11461,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -16434,11 +16470,15 @@
       <c r="J105" s="19">
         <v>93</v>
       </c>
-      <c r="K105" s="19"/>
+      <c r="K105" s="19">
+        <v>2</v>
+      </c>
       <c r="L105" s="16">
         <v>45580</v>
       </c>
-      <c r="M105" s="19"/>
+      <c r="M105" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="N105" s="17">
         <f t="shared" si="33"/>
         <v>45580</v>
@@ -16451,7 +16491,7 @@
         <v>45581</v>
       </c>
       <c r="Q105" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R105" s="17">
         <f t="shared" si="35"/>
@@ -16500,17 +16540,21 @@
       <c r="J106" s="19">
         <v>94</v>
       </c>
-      <c r="K106" s="19"/>
+      <c r="K106" s="19">
+        <v>0</v>
+      </c>
       <c r="L106" s="16">
         <v>45581</v>
       </c>
-      <c r="M106" s="19"/>
+      <c r="M106" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="N106" s="17">
         <f t="shared" si="33"/>
         <v>45581</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P106" s="17">
         <f t="shared" si="34"/>
@@ -16566,11 +16610,15 @@
       <c r="J107" s="19">
         <v>95</v>
       </c>
-      <c r="K107" s="19"/>
+      <c r="K107" s="19">
+        <v>1</v>
+      </c>
       <c r="L107" s="16">
         <v>45582</v>
       </c>
-      <c r="M107" s="19"/>
+      <c r="M107" s="27" t="s">
+        <v>87</v>
+      </c>
       <c r="N107" s="17">
         <f t="shared" si="33"/>
         <v>45582</v>
@@ -16632,11 +16680,15 @@
       <c r="J108" s="19">
         <v>96</v>
       </c>
-      <c r="K108" s="19"/>
+      <c r="K108" s="19">
+        <v>1</v>
+      </c>
       <c r="L108" s="16">
         <v>45583</v>
       </c>
-      <c r="M108" s="19"/>
+      <c r="M108" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="N108" s="17">
         <f t="shared" si="33"/>
         <v>45583</v>
@@ -16663,7 +16715,7 @@
         <v>45586</v>
       </c>
       <c r="U108" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V108" s="17">
         <f t="shared" si="37"/>
@@ -16830,17 +16882,21 @@
       <c r="J111" s="19">
         <v>99</v>
       </c>
-      <c r="K111" s="19"/>
+      <c r="K111" s="19">
+        <v>1</v>
+      </c>
       <c r="L111" s="16">
         <v>45586</v>
       </c>
-      <c r="M111" s="19"/>
+      <c r="M111" s="27" t="s">
+        <v>88</v>
+      </c>
       <c r="N111" s="17">
         <f t="shared" si="33"/>
         <v>45586</v>
       </c>
       <c r="O111" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P111" s="17">
         <f t="shared" si="34"/>
@@ -16896,11 +16952,15 @@
       <c r="J112" s="19">
         <v>100</v>
       </c>
-      <c r="K112" s="19"/>
+      <c r="K112" s="19">
+        <v>1</v>
+      </c>
       <c r="L112" s="16">
         <v>45587</v>
       </c>
-      <c r="M112" s="19"/>
+      <c r="M112" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="N112" s="17">
         <f t="shared" si="33"/>
         <v>45587</v>
@@ -20392,14 +20452,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20416,6 +20468,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9028F5-30BB-4B32-B632-545FDA50C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D3CD6A-2424-41A3-BDDD-95063B1FE86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="99">
   <si>
     <t>年</t>
   </si>
@@ -547,7 +547,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>day65_overlay,事件处理,选取要素,绘制要素,控件_js中访问mysql</t>
+    <t>day65_overlay,事件处理,选取要素,绘制要素,控件_mysql2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_智慧城市-基本框架</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day68_l7,cheerio,sequelize查找功能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day66_mapbox,mysql-sequelize</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7_mapbox,mock.js,sequelize</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day71_智慧城市:l7建筑图层道路图层,l7draw,truf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day72_智慧城市:桥梁3d弧线图层,导航守卫中更新draw</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day70_智慧城市:mapbox地球自转,G2图表信息展示;vite-mock</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1331,7 +1383,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,25 +1646,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45586</c:v>
+                  <c:v>45593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45587</c:v>
+                  <c:v>45594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45588</c:v>
+                  <c:v>45595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45589</c:v>
+                  <c:v>45596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45590</c:v>
+                  <c:v>45597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45591</c:v>
+                  <c:v>45598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45592</c:v>
+                  <c:v>45599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,10 +2104,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
@@ -4812,7 +4864,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>66</a:t>
+            <a:t>73</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9327,8 +9379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M113" sqref="M113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M122" sqref="M122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9872,7 +9924,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -9884,7 +9936,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -9986,7 +10038,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45587</v>
+        <v>45594</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10092,7 +10144,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45588</v>
+        <v>45595</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10204,7 +10256,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45589</v>
+        <v>45596</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10212,7 +10264,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10318,7 +10370,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10422,7 +10474,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45591</v>
+        <v>45598</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10505,7 +10557,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45592</v>
+        <v>45599</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10753,7 +10805,7 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10837,7 +10889,7 @@
       </c>
       <c r="AF23" s="15">
         <f>COUNTIF($K$13:$K$20000,1)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
@@ -17022,17 +17074,21 @@
       <c r="J113" s="19">
         <v>101</v>
       </c>
-      <c r="K113" s="19"/>
+      <c r="K113" s="19">
+        <v>1</v>
+      </c>
       <c r="L113" s="16">
         <v>45588</v>
       </c>
-      <c r="M113" s="19"/>
+      <c r="M113" s="27" t="s">
+        <v>94</v>
+      </c>
       <c r="N113" s="17">
         <f t="shared" si="33"/>
         <v>45588</v>
       </c>
       <c r="O113" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P113" s="17">
         <f t="shared" si="34"/>
@@ -17088,17 +17144,21 @@
       <c r="J114" s="19">
         <v>102</v>
       </c>
-      <c r="K114" s="19"/>
+      <c r="K114" s="19">
+        <v>1</v>
+      </c>
       <c r="L114" s="16">
         <v>45589</v>
       </c>
-      <c r="M114" s="19"/>
+      <c r="M114" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="N114" s="17">
         <f t="shared" si="33"/>
         <v>45589</v>
       </c>
       <c r="O114" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P114" s="17">
         <f t="shared" si="34"/>
@@ -17154,11 +17214,15 @@
       <c r="J115" s="19">
         <v>103</v>
       </c>
-      <c r="K115" s="19"/>
+      <c r="K115" s="19">
+        <v>1</v>
+      </c>
       <c r="L115" s="16">
         <v>45590</v>
       </c>
-      <c r="M115" s="19"/>
+      <c r="M115" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="N115" s="17">
         <f t="shared" si="33"/>
         <v>45590</v>
@@ -17352,11 +17416,15 @@
       <c r="J118" s="19">
         <v>106</v>
       </c>
-      <c r="K118" s="19"/>
+      <c r="K118" s="19">
+        <v>2</v>
+      </c>
       <c r="L118" s="16">
         <v>45593</v>
       </c>
-      <c r="M118" s="19"/>
+      <c r="M118" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="N118" s="17">
         <f t="shared" si="33"/>
         <v>45593</v>
@@ -17369,7 +17437,7 @@
         <v>45594</v>
       </c>
       <c r="Q118" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R118" s="17">
         <f t="shared" si="35"/>
@@ -17383,7 +17451,7 @@
         <v>45596</v>
       </c>
       <c r="U118" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V118" s="17">
         <f t="shared" si="37"/>
@@ -17418,11 +17486,15 @@
       <c r="J119" s="19">
         <v>107</v>
       </c>
-      <c r="K119" s="19"/>
+      <c r="K119" s="19">
+        <v>2</v>
+      </c>
       <c r="L119" s="16">
         <v>45594</v>
       </c>
-      <c r="M119" s="19"/>
+      <c r="M119" s="27" t="s">
+        <v>98</v>
+      </c>
       <c r="N119" s="17">
         <f t="shared" si="33"/>
         <v>45594</v>
@@ -17442,7 +17514,7 @@
         <v>45596</v>
       </c>
       <c r="S119" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T119" s="17">
         <f t="shared" si="36"/>
@@ -17484,11 +17556,15 @@
       <c r="J120" s="19">
         <v>108</v>
       </c>
-      <c r="K120" s="19"/>
+      <c r="K120" s="19">
+        <v>2</v>
+      </c>
       <c r="L120" s="16">
         <v>45595</v>
       </c>
-      <c r="M120" s="19"/>
+      <c r="M120" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="N120" s="17">
         <f t="shared" si="33"/>
         <v>45595</v>
@@ -17501,7 +17577,7 @@
         <v>45596</v>
       </c>
       <c r="Q120" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R120" s="17">
         <f t="shared" si="35"/>
@@ -17550,17 +17626,21 @@
       <c r="J121" s="19">
         <v>109</v>
       </c>
-      <c r="K121" s="19"/>
+      <c r="K121" s="19">
+        <v>1</v>
+      </c>
       <c r="L121" s="16">
         <v>45596</v>
       </c>
-      <c r="M121" s="19"/>
+      <c r="M121" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="N121" s="17">
         <f t="shared" si="33"/>
         <v>45596</v>
       </c>
       <c r="O121" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P121" s="17">
         <f t="shared" si="34"/>

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D3CD6A-2424-41A3-BDDD-95063B1FE86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859AA00F-697E-4CEA-8A4D-53E93F1AECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="101">
   <si>
     <t>年</t>
   </si>
@@ -602,6 +602,85 @@
     <t>day70_智慧城市:mapbox地球自转,G2图表信息展示;vite-mock</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>day74_mapgis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的基本使用</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day73_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>封装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_day64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>city-query:ol:cluster,get,set</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -613,7 +692,7 @@
     <numFmt numFmtId="178" formatCode="0&quot;天&quot;"/>
     <numFmt numFmtId="179" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +786,13 @@
       <color theme="1" tint="0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -980,12 +1066,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1085,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,7 +1469,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,25 +1732,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45593</c:v>
+                  <c:v>45600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45594</c:v>
+                  <c:v>45601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45595</c:v>
+                  <c:v>45602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45596</c:v>
+                  <c:v>45603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45597</c:v>
+                  <c:v>45604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45598</c:v>
+                  <c:v>45605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45599</c:v>
+                  <c:v>45606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2104,13 +2190,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4864,7 +4950,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>73</a:t>
+            <a:t>75</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9379,8 +9465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M122" sqref="M122"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9416,124 +9502,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9681,10 +9767,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>2024</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9694,11 +9780,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9716,10 +9802,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="29" t="s">
+      <c r="AE10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="29"/>
+      <c r="AF10" s="36"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9780,38 +9866,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="30">
+      <c r="O12" s="35"/>
+      <c r="P12" s="37">
         <v>1</v>
       </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37">
         <v>2</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30">
+      <c r="S12" s="37"/>
+      <c r="T12" s="37">
         <v>3</v>
       </c>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30">
+      <c r="U12" s="37"/>
+      <c r="V12" s="37">
         <v>7</v>
       </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37">
         <v>15</v>
       </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30">
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37">
         <v>30</v>
       </c>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30">
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37">
         <v>60</v>
       </c>
-      <c r="AC12" s="30"/>
+      <c r="AC12" s="37"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -9924,7 +10010,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45593</v>
+        <v>45600</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -9936,7 +10022,7 @@
       </c>
       <c r="AI13" s="15">
         <f ca="1">COUNTIFS($N:$N,TODAY(),$O:$O,"☑")+COUNTIFS($P:$P,TODAY(),$Q:$Q,"☑")+COUNTIFS($R:$R,TODAY(),$S:$S,"☑")+COUNTIFS($T:$T,TODAY(),$U:$U,"☑")+COUNTIFS($V:$V,TODAY(),$W:$W,"☑")+COUNTIFS($X:$X,TODAY(),$Y:$Y,"☑")+COUNTIFS($Z:$Z,TODAY(),$AA:$AA,"☑")+COUNTIFS($AB:$AB,TODAY(),$AC:$AC,"☑")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
@@ -10038,7 +10124,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45594</v>
+        <v>45601</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10144,7 +10230,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45595</v>
+        <v>45602</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10256,7 +10342,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45596</v>
+        <v>45603</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10264,7 +10350,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10370,7 +10456,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10474,7 +10560,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45598</v>
+        <v>45605</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10557,7 +10643,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45599</v>
+        <v>45606</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10643,11 +10729,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10726,11 +10812,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10805,16 +10891,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10894,11 +10980,11 @@
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -10973,16 +11059,16 @@
       </c>
       <c r="AF24" s="15">
         <f>COUNTIF($K$13:$K$20000,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -11053,11 +11139,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -11128,11 +11214,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -11205,11 +11291,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11282,11 +11368,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11359,11 +11445,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11436,11 +11522,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11513,11 +11599,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -17696,11 +17782,15 @@
       <c r="J122" s="19">
         <v>110</v>
       </c>
-      <c r="K122" s="19"/>
+      <c r="K122" s="19">
+        <v>2</v>
+      </c>
       <c r="L122" s="16">
         <v>45597</v>
       </c>
-      <c r="M122" s="19"/>
+      <c r="M122" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N122" s="17">
         <f t="shared" si="33"/>
         <v>45597</v>
@@ -17727,7 +17817,7 @@
         <v>45600</v>
       </c>
       <c r="U122" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V122" s="17">
         <f t="shared" si="37"/>
@@ -17894,11 +17984,15 @@
       <c r="J125" s="19">
         <v>113</v>
       </c>
-      <c r="K125" s="19"/>
+      <c r="K125" s="19">
+        <v>0</v>
+      </c>
       <c r="L125" s="16">
         <v>45600</v>
       </c>
-      <c r="M125" s="19"/>
+      <c r="M125" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="N125" s="17">
         <f t="shared" si="33"/>
         <v>45600</v>
@@ -20532,6 +20626,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20548,14 +20650,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">

--- a/艾宾浩斯学习计划表 - WebGIS.xlsx
+++ b/艾宾浩斯学习计划表 - WebGIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebGIS\New Zondy - 2405\00_Mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859AA00F-697E-4CEA-8A4D-53E93F1AECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8168178C-5ACE-4BCB-8515-EE8C7AEB73F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="106">
   <si>
     <t>年</t>
   </si>
@@ -604,22 +604,6 @@
   </si>
   <si>
     <r>
-      <t>day74_mapgis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的基本使用</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>day73_</t>
     </r>
     <r>
@@ -679,6 +663,54 @@
       </rPr>
       <t>city-query:ol:cluster,get,set</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day75_MapGIS Client for JavaScript:发布服务,交互,查询</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day76_MapGIS Client for JS:添加要素;nodejs:express;sequelize</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day74_mapgis的基本使用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>78_智慧交通项目考核</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>day83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_智慧交通项目考核</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day84_考核项目汇报</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1066,6 +1098,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1085,12 +1123,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1732,25 +1764,25 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45600</c:v>
+                  <c:v>45614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45601</c:v>
+                  <c:v>45615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45602</c:v>
+                  <c:v>45616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45603</c:v>
+                  <c:v>45617</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45604</c:v>
+                  <c:v>45618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45605</c:v>
+                  <c:v>45619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45606</c:v>
+                  <c:v>45620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2190,10 +2222,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11</c:v>
@@ -4950,7 +4982,7 @@
               <a:buSzTx/>
               <a:buFontTx/>
             </a:pPr>
-            <a:t>75</a:t>
+            <a:t>80</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -9465,8 +9497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M126" sqref="M126"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M140" sqref="M140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="27" customHeight="1"/>
@@ -9502,124 +9534,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
     </row>
     <row r="2" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
     </row>
     <row r="4" spans="2:35" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="9.9" customHeight="1">
       <c r="B5" s="3"/>
@@ -9767,10 +9799,10 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:35" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="32">
+      <c r="B10" s="34">
         <v>2024</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -9780,11 +9812,11 @@
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -9802,10 +9834,10 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="36"/>
+      <c r="AF10" s="29"/>
       <c r="AH10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9866,38 +9898,38 @@
       <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="37">
+      <c r="O12" s="37"/>
+      <c r="P12" s="30">
         <v>1</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37">
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30">
         <v>2</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37">
+      <c r="S12" s="30"/>
+      <c r="T12" s="30">
         <v>3</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37">
+      <c r="U12" s="30"/>
+      <c r="V12" s="30">
         <v>7</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37">
+      <c r="W12" s="30"/>
+      <c r="X12" s="30">
         <v>15</v>
       </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37">
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30">
         <v>30</v>
       </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37">
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30">
         <v>60</v>
       </c>
-      <c r="AC12" s="37"/>
+      <c r="AC12" s="30"/>
       <c r="AE12" s="14" t="s">
         <v>14</v>
       </c>
@@ -10010,7 +10042,7 @@
       </c>
       <c r="AE13" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45600</v>
+        <v>45614</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF19" ca="1" si="8">COUNTIF($N:$N,AE13)+COUNTIF($P:$P,AE13)+COUNTIF($R:$R,AE13)+COUNTIF($T:$T,AE13)+COUNTIF($V:$V,AE13)+COUNTIF($X:$X,AE13)+COUNTIF($Z:$Z,AE13)+COUNTIF($AB:$AB,AE13)</f>
@@ -10124,7 +10156,7 @@
       </c>
       <c r="AE14" s="21">
         <f t="shared" ref="AE14:AE19" ca="1" si="12">AE13+1</f>
-        <v>45601</v>
+        <v>45615</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10230,7 +10262,7 @@
       </c>
       <c r="AE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45602</v>
+        <v>45616</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10342,7 +10374,7 @@
       </c>
       <c r="AE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45603</v>
+        <v>45617</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10350,7 +10382,7 @@
       </c>
       <c r="AH16" s="23">
         <f>COUNTA($M$13:$M$20000)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI16" s="23">
         <f ca="1">SUM(AF13:AF19)</f>
@@ -10456,7 +10488,7 @@
       </c>
       <c r="AE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45604</v>
+        <v>45618</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10560,7 +10592,7 @@
       </c>
       <c r="AE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45605</v>
+        <v>45619</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10643,7 +10675,7 @@
       </c>
       <c r="AE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45606</v>
+        <v>45620</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="8"/>
@@ -10729,11 +10761,11 @@
     </row>
     <row r="21" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="12"/>
       <c r="J21" s="15">
         <v>9</v>
@@ -10812,11 +10844,11 @@
     </row>
     <row r="22" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="12"/>
       <c r="J22" s="19">
         <v>10</v>
@@ -10891,16 +10923,16 @@
       </c>
       <c r="AF22" s="15">
         <f>COUNTIF($K$13:$K$20000,2)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="12"/>
       <c r="J23" s="15">
         <v>11</v>
@@ -10975,16 +11007,16 @@
       </c>
       <c r="AF23" s="15">
         <f>COUNTIF($K$13:$K$20000,1)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="12"/>
       <c r="J24" s="19">
         <v>12</v>
@@ -11064,11 +11096,11 @@
     </row>
     <row r="25" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="12"/>
       <c r="J25" s="15">
         <v>13</v>
@@ -11139,11 +11171,11 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="12"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="12"/>
       <c r="J26" s="19">
         <v>14</v>
@@ -11214,11 +11246,11 @@
     </row>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="12"/>
       <c r="J27" s="15">
         <v>15</v>
@@ -11291,11 +11323,11 @@
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="12"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="12"/>
       <c r="J28" s="19">
         <v>16</v>
@@ -11368,11 +11400,11 @@
     </row>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="12"/>
       <c r="J29" s="15">
         <v>17</v>
@@ -11445,11 +11477,11 @@
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="12"/>
       <c r="J30" s="19">
         <v>18</v>
@@ -11522,11 +11554,11 @@
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="12"/>
       <c r="J31" s="19">
         <v>19</v>
@@ -11599,11 +11631,11 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="12"/>
       <c r="J32" s="19">
         <v>20</v>
@@ -17789,7 +17821,7 @@
         <v>45597</v>
       </c>
       <c r="M122" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N122" s="17">
         <f t="shared" si="33"/>
@@ -17990,8 +18022,8 @@
       <c r="L125" s="16">
         <v>45600</v>
       </c>
-      <c r="M125" s="19" t="s">
-        <v>99</v>
+      <c r="M125" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="N125" s="17">
         <f t="shared" si="33"/>
@@ -18054,17 +18086,21 @@
       <c r="J126" s="19">
         <v>114</v>
       </c>
-      <c r="K126" s="19"/>
+      <c r="K126" s="19">
+        <v>1</v>
+      </c>
       <c r="L126" s="16">
         <v>45601</v>
       </c>
-      <c r="M126" s="19"/>
+      <c r="M126" s="27" t="s">
+        <v>100</v>
+      </c>
       <c r="N126" s="17">
         <f t="shared" si="33"/>
         <v>45601</v>
       </c>
       <c r="O126" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P126" s="17">
         <f t="shared" si="34"/>
@@ -18120,17 +18156,21 @@
       <c r="J127" s="19">
         <v>115</v>
       </c>
-      <c r="K127" s="19"/>
+      <c r="K127" s="19">
+        <v>1</v>
+      </c>
       <c r="L127" s="16">
         <v>45602</v>
       </c>
-      <c r="M127" s="19"/>
+      <c r="M127" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="N127" s="17">
         <f t="shared" si="33"/>
         <v>45602</v>
       </c>
       <c r="O127" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P127" s="17">
         <f t="shared" si="34"/>
@@ -18252,11 +18292,15 @@
       <c r="J129" s="19">
         <v>117</v>
       </c>
-      <c r="K129" s="19"/>
+      <c r="K129" s="19">
+        <v>2</v>
+      </c>
       <c r="L129" s="16">
         <v>45604</v>
       </c>
-      <c r="M129" s="19"/>
+      <c r="M129" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="N129" s="17">
         <f t="shared" si="33"/>
         <v>45604</v>
@@ -18714,11 +18758,15 @@
       <c r="J136" s="19">
         <v>124</v>
       </c>
-      <c r="K136" s="19"/>
+      <c r="K136" s="19">
+        <v>2</v>
+      </c>
       <c r="L136" s="16">
         <v>45611</v>
       </c>
-      <c r="M136" s="19"/>
+      <c r="M136" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="N136" s="17">
         <f t="shared" si="41"/>
         <v>45611</v>
@@ -18912,17 +18960,21 @@
       <c r="J139" s="19">
         <v>127</v>
       </c>
-      <c r="K139" s="19"/>
+      <c r="K139" s="19">
+        <v>2</v>
+      </c>
       <c r="L139" s="16">
         <v>45614</v>
       </c>
-      <c r="M139" s="19"/>
+      <c r="M139" s="27" t="s">
+        <v>105</v>
+      </c>
       <c r="N139" s="17">
         <f t="shared" si="41"/>
         <v>45614</v>
       </c>
       <c r="O139" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P139" s="17">
         <f t="shared" si="42"/>
@@ -20626,14 +20678,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B1:AC4"/>
@@ -20650,6 +20694,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:H18">
